--- a/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>297,35%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,55; 8,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; -0,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 9,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-39,76; 94,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,51; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; 2,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 4,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,79; 101,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,2; 91,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,59; 184,66</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,19%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 11,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 1,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 92,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,53; 230,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,95; 88,65</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,88%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 17,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,27; 146,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,74; 199,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; 973,58</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,09%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; 9,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 1,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; -0,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,92; 47,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,74; 52,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,46; 7,31</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,26%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 4,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 1,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 32,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 7,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; -0,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 46,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,92; -8,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,81; 77,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>297,35%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8683380095787563</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.473042221655386</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.284549537761557</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.06627708779572278</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.366321306023922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 8,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; -0,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 9,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-39,76; 94,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.553930150196543</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.72960615399068</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3509467619306437</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3975570045179207</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.49151575175657</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.438316722573745</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-1.001809612803968</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.931885927197552</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.9463850728755078</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,31%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-45,89%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>20,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 13,36</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 2,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 4,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-26,79; 101,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-99,2; 91,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-58,59; 184,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.267853950923953</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.546097137057495</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7763829215628543</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2331469054272124</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3987363057333382</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1792033347016254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>30,84%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-21,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-27,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.090743334316297</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.18662616168059</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.988621609880943</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2679475291226979</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9432983029199824</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.610602989542943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 11,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 2,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 1,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 92,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-88,53; 230,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-73,95; 88,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.35705423624717</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.789201301352148</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.278302336203691</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.012322533529414</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.347768521990798</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.761243788626235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +769,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>68,71%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>160,88%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.831321521584045</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1992271086033771</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.33901359597783</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3083778281091151</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.07117362242367777</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2969750260734925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 17,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 3,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>23,27; 146,91</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 199,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-16,92; 973,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.514051653081097</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.434151184862044</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.299599811163277</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1608994296861042</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.9292324555236514</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7546129581854192</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.15380916905418</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.644890198664325</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.74737310495372</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.928182064036428</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.446857587499679</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.801258351018579</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-37,11%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-62,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,98; 9,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 1,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; -0,49</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-33,92; 47,52</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-76,74; 52,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-88,46; 7,31</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.92591509437536</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.09689377624533986</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.912528592049792</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6870942706623639</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.0331787494506829</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.499545325409973</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,59</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,2%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-46,26%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.584913044491811</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.858238613606721</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.0864719483238912</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.2327430321477404</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6312027834015066</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.212966152534045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; 4,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 1,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-59,05; 32,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.41661799598091</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.798034917398256</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.317777102061806</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.46914902027881</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.103400310308337</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.792408966291656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +933,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-43,52%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3965374442885972</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.820359845039349</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.424631648394395</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.01539827438855959</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.3486249123414877</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.618406277008267</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 7,1</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; -0,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 1,81</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 46,76</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-72,92; -8,42</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-30,81; 77,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.98396801214857</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.546787486560289</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.578472508750086</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3392265693555241</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.779391788455928</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8866672316519989</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.582752021286863</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.212764259323656</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.4884488314962694</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.4752282555830978</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.797626400287647</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.07075047205879195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-4.592844422928319</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-1.088235886367883</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-1.289006139687609</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.2620406859061899</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.4783439465745462</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-12.62690217344939</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-3.851908127719541</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-8.664527835471658</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.5905403962069176</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.099695029996675</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.571050814861445</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.3223965963442224</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.616811132701705</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.603436192949158</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.104568198066874</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2075444576403861</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.4251644838306823</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.03126637310079362</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.473034991279823</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.128879281751868</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.464517780929842</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.02461596400421658</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6963510085356944</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3315050441069894</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.102772985672404</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.04446665054035922</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.727109724126887</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.4676010860255171</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.02570563150160246</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.700914536787016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1170,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
